--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/电力、热力及水的生产和供应业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/电力、热力及水的生产和供应业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,280 +523,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.052056657375668</v>
+        <v>0.052283611029702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06486637462111799</v>
+        <v>0.064678912465539</v>
       </c>
       <c r="D2" t="n">
-        <v>0.028045759300599</v>
+        <v>0.034083361167748</v>
       </c>
       <c r="E2" t="n">
-        <v>0.115788024424954</v>
+        <v>0.126321254204369</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002719977375992</v>
+        <v>0.003190019377196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.030629494979728</v>
+        <v>0.038713143541537</v>
       </c>
       <c r="H2" t="n">
-        <v>0.059470473019914</v>
+        <v>0.065518377393052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.37173666474148</v>
+        <v>0.35931596493013</v>
       </c>
       <c r="J2" t="n">
-        <v>0.117024603685805</v>
+        <v>0.09599838744551301</v>
       </c>
       <c r="K2" t="n">
-        <v>0.638489727713406</v>
+        <v>0.584626829302071</v>
       </c>
       <c r="L2" t="n">
-        <v>0.027156754896225</v>
+        <v>0.029400063067623</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08361074577458499</v>
+        <v>0.096343214521025</v>
       </c>
       <c r="N2" t="n">
-        <v>0.312980417476863</v>
+        <v>0.445329256251507</v>
       </c>
       <c r="O2" t="n">
-        <v>0.163692240803578</v>
+        <v>0.161072459550348</v>
       </c>
       <c r="P2" t="n">
-        <v>0.087958064498825</v>
+        <v>0.098769417368611</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.020160831930839</v>
+        <v>0.025100697319333</v>
       </c>
       <c r="R2" t="n">
-        <v>0.026458224871801</v>
+        <v>0.030349225905492</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.052283611029702</v>
+        <v>0.045816297954903</v>
       </c>
       <c r="C3" t="n">
-        <v>0.064678912465539</v>
+        <v>0.050566744515659</v>
       </c>
       <c r="D3" t="n">
-        <v>0.034083361167748</v>
+        <v>0.027401572815188</v>
       </c>
       <c r="E3" t="n">
-        <v>0.126321254204369</v>
+        <v>0.105575939462226</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003190019377196</v>
+        <v>0.011752345637333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.038713143541537</v>
+        <v>0.05705789642569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.065518377393052</v>
+        <v>0.06870044520301501</v>
       </c>
       <c r="I3" t="n">
-        <v>0.35931596493013</v>
+        <v>0.276159949738135</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09599838744551301</v>
+        <v>0.108440974994092</v>
       </c>
       <c r="K3" t="n">
-        <v>0.584626829302071</v>
+        <v>0.54801361105386</v>
       </c>
       <c r="L3" t="n">
-        <v>0.029400063067623</v>
+        <v>0.018595673996756</v>
       </c>
       <c r="M3" t="n">
-        <v>0.096343214521025</v>
+        <v>0.081828173730968</v>
       </c>
       <c r="N3" t="n">
-        <v>0.445329256251507</v>
+        <v>0.44002305209368</v>
       </c>
       <c r="O3" t="n">
-        <v>0.161072459550348</v>
+        <v>0.133034969155002</v>
       </c>
       <c r="P3" t="n">
-        <v>0.098769417368611</v>
+        <v>0.128192442981538</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.025100697319333</v>
+        <v>0.01730339873518</v>
       </c>
       <c r="R3" t="n">
-        <v>0.030349225905492</v>
+        <v>0.030605365558412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.045816297954903</v>
+        <v>0.05686977652314</v>
       </c>
       <c r="C4" t="n">
-        <v>0.050566744515659</v>
+        <v>0.070458202705958</v>
       </c>
       <c r="D4" t="n">
-        <v>0.027401572815188</v>
+        <v>0.042517232974605</v>
       </c>
       <c r="E4" t="n">
-        <v>0.105575939462226</v>
+        <v>0.125358318471002</v>
       </c>
       <c r="F4" t="n">
-        <v>0.011752345637333</v>
+        <v>0.014739965187196</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05705789642569</v>
+        <v>0.09044602377439299</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06870044520301501</v>
+        <v>0.100816377834653</v>
       </c>
       <c r="I4" t="n">
-        <v>0.276159949738135</v>
+        <v>0.340796647938843</v>
       </c>
       <c r="J4" t="n">
-        <v>0.108440974994092</v>
+        <v>0.100079749623896</v>
       </c>
       <c r="K4" t="n">
-        <v>0.54801361105386</v>
+        <v>0.702441808324941</v>
       </c>
       <c r="L4" t="n">
-        <v>0.018595673996756</v>
+        <v>0.027192721285257</v>
       </c>
       <c r="M4" t="n">
-        <v>0.081828173730968</v>
+        <v>0.111332319964768</v>
       </c>
       <c r="N4" t="n">
-        <v>0.44002305209368</v>
+        <v>0.042517232974605</v>
       </c>
       <c r="O4" t="n">
-        <v>0.133034969155002</v>
+        <v>0.129627823271365</v>
       </c>
       <c r="P4" t="n">
-        <v>0.128192442981538</v>
+        <v>0.177446455965296</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01730339873518</v>
+        <v>0.020592310922484</v>
       </c>
       <c r="R4" t="n">
-        <v>0.030605365558412</v>
+        <v>0.05071400574419</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05686977652314</v>
+        <v>0.01290156230045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.070458202705958</v>
+        <v>0.098758715947911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.042517232974605</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.125358318471002</v>
-      </c>
+        <v>0.024459312213103</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.014739965187196</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.09044602377439299</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.100816377834653</v>
-      </c>
+        <v>0.006343603647271</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.340796647938843</v>
+        <v>0.277281316619032</v>
       </c>
       <c r="J5" t="n">
-        <v>0.100079749623896</v>
+        <v>0.145852814416311</v>
       </c>
       <c r="K5" t="n">
-        <v>0.702441808324941</v>
+        <v>0.422645356555883</v>
       </c>
       <c r="L5" t="n">
-        <v>0.027192721285257</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.111332319964768</v>
-      </c>
+        <v>0.01795988697802</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.042517232974605</v>
+        <v>0.319769519237271</v>
       </c>
       <c r="O5" t="n">
-        <v>0.129627823271365</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.177446455965296</v>
-      </c>
+        <v>0.085116314627923</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.020592310922484</v>
+        <v>0.015207799417823</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05071400574419</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.01290156230045</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.098758715947911</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.024459312213103</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.006343603647271</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.277281316619032</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.145852814416311</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.422645356555883</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.01795988697802</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.319769519237271</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.085116314627923</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.015207799417823</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.031749384964627</v>
       </c>
     </row>
